--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -5,23 +5,53 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B672207-CE64-46B3-8F18-E2B9C3DCC8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BF310-9D95-4703-8759-2CFA69396732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12204" yWindow="2220" windowWidth="30816" windowHeight="20940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="RF+RL 10M" sheetId="10" r:id="rId2"/>
+    <sheet name="RF-Box &amp; Whisker 10M" sheetId="2" r:id="rId3"/>
+    <sheet name="LR-Box &amp; Whisker 10M" sheetId="4" r:id="rId4"/>
+    <sheet name="RF Events Rank" sheetId="7" r:id="rId5"/>
+    <sheet name="RF-Box &amp; Whisker 20M" sheetId="5" r:id="rId6"/>
+    <sheet name="LR-Box &amp; Whisker 20M" sheetId="6" r:id="rId7"/>
+    <sheet name="LR Events Rank" sheetId="8" r:id="rId8"/>
+    <sheet name="Others" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$7:$B$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$7:$A$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$7:$A$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$7:$C$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$C$9:$C$28</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$D$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Others!$J$8:$J$12</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Others!$K$8:$K$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$C$9:$C$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$D$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$E$8:$E$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$F$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="52">
   <si>
     <t>CPU</t>
   </si>
@@ -58,12 +88,144 @@
   <si>
     <t>Indeterminate</t>
   </si>
+  <si>
+    <t>3600-600-350</t>
+  </si>
+  <si>
+    <t>3600-1200-600</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>3600-1800-60</t>
+  </si>
+  <si>
+    <t>5400-2700-600</t>
+  </si>
+  <si>
+    <t>1800-600-350</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Accuracy (3600-600-350)</t>
+  </si>
+  <si>
+    <t>Accuracy (3600-1200-600)</t>
+  </si>
+  <si>
+    <t>Accuracy (3600-1800-60)</t>
+  </si>
+  <si>
+    <t>Accuracy (5400-2700-600)</t>
+  </si>
+  <si>
+    <t>Accuracy (1800-600-350)</t>
+  </si>
+  <si>
+    <t>Sliding Window Run</t>
+  </si>
+  <si>
+    <t>Metric Query</t>
+  </si>
+  <si>
+    <t>Metrics Score</t>
+  </si>
+  <si>
+    <t>Recall (3600-600-350)</t>
+  </si>
+  <si>
+    <t>Recall (3600-1200-600)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>E1119</t>
+  </si>
+  <si>
+    <t>E1278</t>
+  </si>
+  <si>
+    <t>E264</t>
+  </si>
+  <si>
+    <t>Événement</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Contributon moyenne</t>
+  </si>
+  <si>
+    <t>E1175</t>
+  </si>
+  <si>
+    <t>E1970</t>
+  </si>
+  <si>
+    <t>E381</t>
+  </si>
+  <si>
+    <t>Random Forest 20M - an690</t>
+  </si>
+  <si>
+    <t>Random Forest 10M - dn30</t>
+  </si>
+  <si>
+    <t>10M 80-20 - dn30</t>
+  </si>
+  <si>
+    <t>20M 80-20 - an690</t>
+  </si>
+  <si>
+    <t>RF Score</t>
+  </si>
+  <si>
+    <t>RL Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +243,45 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -110,6 +304,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,7 +542,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$7:$B$11</c:f>
+              <c:f>'Data Stats'!$B$7:$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -344,7 +565,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:f>'Data Stats'!$C$7:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -634,10 +855,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -704,6 +925,635 @@
       <cx:axis id="2">
         <cx:valScaling max="1" min="0"/>
         <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performances de RF et RL - Thunderbird 10M - 80%-20% - Noeud 'dn30'</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{EAEB7839-CE42-4501-B3B1-965361B863CD}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>RF Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1800" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000003-B666-446A-A65B-4F04FD63F1B4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>RL Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1800" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1.05" min="0.70000000000000007"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1800"/>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performances de Random Forest - Thunderbird 10M - 80%-20%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - Noeud 'dn30'</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6899912A-E712-44A0-B8B2-BB8F0EF76B29}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="31">
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+            <cx:dataLabel idx="32">
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="404040"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1.05" min="0.70000000000000007"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="404040"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Performances de Regression Lineraire - Thunderbird 10M - 80%-20%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - Noeud 'dn30'</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{3E6BAE52-1607-448C-85FD-404D4B066EAD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1800" b="0" i="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="404040"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1.05" min="0.75000000000000011"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="404040"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performances de Random Forest - Thunderbird 20M - 80%-20% - Noeud 'an690'</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{202117BA-FFDA-4949-A405-F197D342C9FE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx7.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Performances de Regression Lineraire - Thunderbird 20M - 80%-20% - Noeud 'an690'</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{CEA85BE7-71CD-4691-82E3-D870ADC49C46}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{439E0542-C086-492B-8D39-11F9A1AE6BB0}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -831,6 +1681,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
@@ -2404,6 +3494,3284 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2494,7 +6862,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="803910" y="6553200"/>
+              <a:off x="1421130" y="6553200"/>
               <a:ext cx="5932170" cy="3771900"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2574,6 +6942,504 @@
             <a:xfrm>
               <a:off x="3737610" y="411480"/>
               <a:ext cx="8401050" cy="5859780"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262FFED0-D96C-FF97-F727-A672EE24B01D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="388620" y="152400"/>
+              <a:ext cx="28194000" cy="12992100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Chart 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB67006-5EA1-5344-1B04-7A53F32F4C2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5212080" y="560070"/>
+              <a:ext cx="21717000" cy="12622530"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3820561F-628E-BC5E-70B8-C61BE6F2EA0E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5394960" y="240030"/>
+              <a:ext cx="23399931" cy="12023816"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54591896-ED91-EC2D-C625-798D8CE37712}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6576060" y="1146810"/>
+              <a:ext cx="16992600" cy="9734550"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CA466D-5132-9C63-BDAB-E496CFF8FDA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5448300" y="1306830"/>
+              <a:ext cx="14051280" cy="10214610"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EA5E79F-4E3D-36F2-2373-B32C3E791413}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11269980" y="1040130"/>
+              <a:ext cx="11414760" cy="6145530"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2871,8 +7737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2944,4 +7810,2465 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1483A604-DE0A-4BDE-9BBE-72617D0A450A}">
+  <dimension ref="C8:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.95779999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.95609999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.88370000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.94940000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.9536</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.97350000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECE797F-8D63-489D-9940-9DB6DA76BB45}">
+  <dimension ref="C5:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.92110000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="7"/>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="7"/>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="7"/>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.9536</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="7"/>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99D1F3-D990-42EE-A95B-9000B5FDBF9C}">
+  <dimension ref="D6:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.95779999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.95609999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.88370000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.94940000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.97350000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE905A-2CF5-4379-993D-5BFAA27A5D4D}">
+  <dimension ref="C6:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.23410400000000001</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.32027499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.202458</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.27412300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.13897899999999999</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.20379900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.23489499999999999</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.36866199999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.173292</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.26608799999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.112412</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.2099</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.18754699999999999</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.36419699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.12782399999999999</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.243918</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8.4030999999999995E-2</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.17660400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.208286</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.314253</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.15220800000000001</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.26572600000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.14286799999999999</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.24148800000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.225132</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.32849099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.202046</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.28845700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.15507399999999999</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.17679800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3773F00E-FC67-49A4-9A28-A477F1EA4AFA}">
+  <dimension ref="C6:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0.95540000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.88139999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F810484-3A0F-4A46-8355-39DB6ACF797E}">
+  <dimension ref="C6:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0.91959999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.9153</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0.88119999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0.9425</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>0.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843D3147-46E2-49FC-8DDE-AFDFD83F895D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843458CB-AE1F-487A-A51B-AA5B9A19B95D}">
+  <dimension ref="D7:K37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>0.96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>0.92110000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0.09</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.9536</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0.94</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0.96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>0.91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0.08</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>0.66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>0.94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="I20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>0.98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>0.72</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0.15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>0.22</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>0.91</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>0.88</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0.09</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>0.61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31">
+        <v>0.93</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>0.9536</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>0.9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>0.05</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>0.74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>0.97</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>0.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404BF310-9D95-4703-8759-2CFA69396732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C55145-C4CE-4525-A4EF-4325A1E80D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6978,16 +6978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7023,8 +7023,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="388620" y="152400"/>
-              <a:ext cx="28194000" cy="12992100"/>
+              <a:off x="6339840" y="426720"/>
+              <a:ext cx="22105620" cy="9631680"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7817,7 +7817,7 @@
   <dimension ref="C8:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C55145-C4CE-4525-A4EF-4325A1E80D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F444850-2234-4BC2-BB55-5784F139453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,32 +26,36 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$F$9:$F$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$C$9:$C$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$D$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$A$9:$A$33</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$B$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$B$9:$B$33</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'RF+RL 10M'!$C$8:$C$33</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'RF+RL 10M'!$D$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Others!$J$8:$J$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Others!$K$8:$K$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$C$9:$C$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$D$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$E$8:$E$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$F$8</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Others!$J$8:$J$12</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Others!$K$8:$K$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$A$9:$A$33</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$B$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$B$9:$B$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$C$8:$C$33</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$D$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="55">
   <si>
     <t>CPU</t>
   </si>
@@ -220,12 +224,21 @@
   <si>
     <t>RL Score</t>
   </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>R-Square</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +270,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +304,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -308,28 +335,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -956,11 +989,11 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:rich>
-          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
@@ -977,7 +1010,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{EAEB7839-CE42-4501-B3B1-965361B863CD}" formatIdx="0">
+        <cx:series layoutId="boxWhisker" uniqueId="{5722F092-3013-4F64-ADFC-607384B34D14}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.5</cx:f>
@@ -990,7 +1023,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1800" b="0" i="0">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -999,18 +1032,18 @@
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1800"/>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </cx:txPr>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{00000003-B666-446A-A65B-4F04FD63F1B4}">
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-409B-4C31-AC21-AE7CD556DB66}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.9</cx:f>
@@ -1023,7 +1056,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1800" b="0" i="0">
+                  <a:defRPr sz="1000" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1032,15 +1065,13 @@
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1800"/>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </cx:txPr>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
           </cx:dataLabels>
           <cx:dataId val="1"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -1053,7 +1084,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800" b="0" i="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1062,12 +1093,12 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1800"/>
+            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="1.05" min="0.70000000000000007"/>
+        <cx:valScaling max="1.01" min="0.20000000000000001"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
         <cx:txPr>
@@ -1075,7 +1106,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800" b="0" i="0">
+              <a:defRPr sz="1000" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1084,7 +1115,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1800"/>
+            <a:endParaRPr lang="en-US" sz="1000"/>
           </a:p>
         </cx:txPr>
       </cx:axis>
@@ -1095,7 +1126,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1800" b="0" i="0">
+            <a:defRPr sz="1000" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1104,7 +1135,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1800"/>
+          <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
       </cx:txPr>
     </cx:legend>
@@ -1117,10 +1148,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1178,7 +1209,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6899912A-E712-44A0-B8B2-BB8F0EF76B29}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1268,10 +1299,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1311,7 +1342,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E6BAE52-1607-448C-85FD-404D4B066EAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1396,10 +1427,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1429,7 +1460,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{202117BA-FFDA-4949-A405-F197D342C9FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1462,10 +1493,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1495,7 +1526,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CEA85BE7-71CD-4691-82E3-D870ADC49C46}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1528,10 +1559,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6978,25 +7009,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2">
+            <xdr:cNvPr id="4" name="Chart 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262FFED0-D96C-FF97-F727-A672EE24B01D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE461A21-5EB7-DD10-E6E5-9EE797861CBF}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7023,8 +7054,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6339840" y="426720"/>
-              <a:ext cx="22105620" cy="9631680"/>
+              <a:off x="4892040" y="857250"/>
+              <a:ext cx="23385780" cy="12226290"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7052,7 +7083,7 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -7273,7 +7304,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6576060" y="1146810"/>
-              <a:ext cx="16992600" cy="9734550"/>
+              <a:ext cx="16992600" cy="8820150"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7356,7 +7387,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5448300" y="1306830"/>
-              <a:ext cx="14051280" cy="10214610"/>
+              <a:ext cx="14051280" cy="9300210"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7814,315 +7845,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1483A604-DE0A-4BDE-9BBE-72617D0A450A}">
-  <dimension ref="C8:F28"/>
+  <dimension ref="A7:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F28"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.90959999999999996</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.96</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.88</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.95609999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.92110000000000003</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.95609999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
+      <c r="B16" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D16" s="4">
         <v>0.94</v>
       </c>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="4">
+      <c r="B18" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="B19" s="4">
         <v>0.85119999999999996</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="4">
+      <c r="D19" s="4">
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4">
+      <c r="B20" s="4">
         <v>0.98</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="4">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="4">
+      <c r="B21" s="4">
         <v>0.72</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="4">
+      <c r="D21" s="4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4">
+      <c r="B23" s="4">
         <v>0.91</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4">
+      <c r="D23" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="4">
+      <c r="B24" s="4">
         <v>0.90510000000000002</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="4">
+      <c r="D24" s="4">
         <v>0.94940000000000002</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="4">
+      <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="4">
+      <c r="D25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="4">
+      <c r="B26" s="4">
         <v>0.88</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4">
+      <c r="D26" s="4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4">
+      <c r="B28" s="4">
         <v>0.93</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.9536</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.97350000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="4">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.9536</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.97350000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4">
         <v>0.97</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="4">
+      <c r="D33" s="4">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8147,27 +8262,27 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="4"/>
@@ -8396,18 +8511,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
@@ -8671,47 +8786,47 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4">
@@ -8723,7 +8838,7 @@
       <c r="F8" s="4">
         <v>0.23410400000000001</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="4">
@@ -8737,7 +8852,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="4">
         <v>2</v>
       </c>
@@ -8747,7 +8862,7 @@
       <c r="F9" s="4">
         <v>0.202458</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="4">
         <v>2</v>
       </c>
@@ -8759,7 +8874,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -8769,7 +8884,7 @@
       <c r="F10" s="4">
         <v>0.13897899999999999</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="4">
         <v>3</v>
       </c>
@@ -8781,7 +8896,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
@@ -8793,7 +8908,7 @@
       <c r="F11" s="4">
         <v>0.23489499999999999</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4">
@@ -8807,7 +8922,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="8"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4">
         <v>2</v>
       </c>
@@ -8817,7 +8932,7 @@
       <c r="F12" s="4">
         <v>0.173292</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="4">
         <v>2</v>
       </c>
@@ -8829,7 +8944,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="8"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4">
         <v>3</v>
       </c>
@@ -8839,7 +8954,7 @@
       <c r="F13" s="4">
         <v>0.112412</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="4">
         <v>3</v>
       </c>
@@ -8851,7 +8966,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4">
@@ -8863,7 +8978,7 @@
       <c r="F14" s="4">
         <v>0.18754699999999999</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="4">
@@ -8877,7 +8992,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="8"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="4">
         <v>2</v>
       </c>
@@ -8887,7 +9002,7 @@
       <c r="F15" s="4">
         <v>0.12782399999999999</v>
       </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="4">
         <v>2</v>
       </c>
@@ -8899,7 +9014,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4">
         <v>3</v>
       </c>
@@ -8909,7 +9024,7 @@
       <c r="F16" s="4">
         <v>8.4030999999999995E-2</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4">
         <v>3</v>
       </c>
@@ -8921,7 +9036,7 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4">
@@ -8933,7 +9048,7 @@
       <c r="F17" s="4">
         <v>0.208286</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="4">
@@ -8947,7 +9062,7 @@
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="4">
         <v>2</v>
       </c>
@@ -8957,7 +9072,7 @@
       <c r="F18" s="4">
         <v>0.15220800000000001</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4">
         <v>2</v>
       </c>
@@ -8969,7 +9084,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="8"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="4">
         <v>3</v>
       </c>
@@ -8979,7 +9094,7 @@
       <c r="F19" s="4">
         <v>0.14286799999999999</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
@@ -8991,7 +9106,7 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4">
@@ -9003,7 +9118,7 @@
       <c r="F20" s="4">
         <v>0.225132</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="12" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="4">
@@ -9017,7 +9132,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4">
         <v>2</v>
       </c>
@@ -9027,7 +9142,7 @@
       <c r="F21" s="4">
         <v>0.202046</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
@@ -9039,7 +9154,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="4">
         <v>3</v>
       </c>
@@ -9049,7 +9164,7 @@
       <c r="F22" s="4">
         <v>0.15507399999999999</v>
       </c>
-      <c r="H22" s="8"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="4">
         <v>3</v>
       </c>
@@ -9062,18 +9177,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9100,11 +9215,11 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
@@ -9362,18 +9477,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">

--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F444850-2234-4BC2-BB55-5784F139453A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73F6A6-3F20-4B2D-B974-4E57D2CDC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,36 +26,32 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$A$9:$A$33</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$B$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$B$9:$B$33</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'RF+RL 10M'!$C$8:$C$33</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'RF+RL 10M'!$D$8</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$E$9:$E$33</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Others!$J$8:$J$12</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Others!$K$8:$K$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Others!$J$8:$J$12</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Others!$K$8:$K$12</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$A$9:$A$33</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$B$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$B$9:$B$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$C$8:$C$33</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$D$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$C$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$E$9:$E$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$C$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="60">
   <si>
     <t>CPU</t>
   </si>
@@ -233,6 +229,21 @@
   <si>
     <t>R-Square</t>
   </si>
+  <si>
+    <t>1800 600 350</t>
+  </si>
+  <si>
+    <t>3600 600 350</t>
+  </si>
+  <si>
+    <t>5400 2700 600</t>
+  </si>
+  <si>
+    <t>3600 1200 600</t>
+  </si>
+  <si>
+    <t>3600 1800 60</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +321,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -323,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -339,6 +368,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -358,12 +399,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,18 +1005,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -993,13 +1028,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1000"/>
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Performances de RF et RL - Thunderbird 10M - 80%-20% - Noeud 'dn30'</a:t>
+              <a:t>Performances de RF et RL - Thunderbird 10M - 80%-20% - VAPI sur noeud 'dn30'</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800">
               <a:effectLst/>
@@ -1013,7 +1048,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5722F092-3013-4F64-ADFC-607384B34D14}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>RF Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1023,7 +1058,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000" b="0" i="0">
+                  <a:defRPr sz="800" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1032,21 +1067,21 @@
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1000"/>
+                <a:endParaRPr lang="en-US" sz="800"/>
               </a:p>
             </cx:txPr>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-409B-4C31-AC21-AE7CD556DB66}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>RL Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1056,7 +1091,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000" b="0" i="0">
+                  <a:defRPr sz="800" b="0" i="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1065,13 +1100,14 @@
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1000"/>
+                <a:endParaRPr lang="en-US" sz="800"/>
               </a:p>
             </cx:txPr>
             <cx:visibility seriesName="0" categoryName="0" value="1"/>
           </cx:dataLabels>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -1084,7 +1120,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000" b="0" i="0">
+              <a:defRPr sz="1800" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1093,7 +1129,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1000"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </cx:txPr>
       </cx:axis>
@@ -1106,7 +1142,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000" b="0" i="0">
+              <a:defRPr sz="1800" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1115,7 +1151,7 @@
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US" sz="1000"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </cx:txPr>
       </cx:axis>
@@ -1126,7 +1162,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000" b="0" i="0">
+            <a:defRPr sz="1800" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
@@ -1135,7 +1171,7 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1000"/>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
       </cx:txPr>
     </cx:legend>
@@ -1148,10 +1184,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1209,7 +1245,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6899912A-E712-44A0-B8B2-BB8F0EF76B29}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1299,10 +1335,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1342,7 +1378,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E6BAE52-1607-448C-85FD-404D4B066EAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1427,10 +1463,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1460,7 +1496,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{202117BA-FFDA-4949-A405-F197D342C9FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1493,10 +1529,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1526,7 +1562,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CEA85BE7-71CD-4691-82E3-D870ADC49C46}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1559,10 +1595,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7009,16 +7045,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7054,8 +7090,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4892040" y="857250"/>
-              <a:ext cx="23385780" cy="12226290"/>
+              <a:off x="5829300" y="430530"/>
+              <a:ext cx="22806660" cy="11959590"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7845,398 +7881,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1483A604-DE0A-4BDE-9BBE-72617D0A450A}">
-  <dimension ref="A7:D33"/>
+  <dimension ref="A7:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="4">
         <v>0.90959999999999996</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>0.95779999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="4">
         <v>0.96</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="4">
         <v>0.88</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="4">
         <v>0.94</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="4">
         <v>0.92110000000000003</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>0.95609999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="4">
         <v>0.96</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="4">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="4">
         <v>0.91</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="4">
         <v>0.66</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="4">
         <v>0.94</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4">
+      <c r="E18" s="4">
         <v>0.97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="4">
         <v>0.85119999999999996</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>0.88370000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="4">
         <v>0.98</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="4">
         <v>0.72</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="4">
         <v>0.22</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>0.39</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="4">
         <v>0.91</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="4">
         <v>0.90510000000000002</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>0.94940000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="4">
         <v>0.88</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="4">
         <v>0.61</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>0.79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="4">
         <v>0.93</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4">
+      <c r="E28" s="4">
         <v>0.96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="4">
         <v>0.9536</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>0.97350000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="4">
+      <c r="E30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="4">
         <v>0.9</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4">
+      <c r="C32" s="4">
         <v>0.74</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>0.85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="4">
+      <c r="C33" s="4">
         <v>0.97</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="7">
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8262,18 +8339,18 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="6" t="s">
@@ -8290,7 +8367,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -8301,7 +8378,7 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
@@ -8310,7 +8387,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="7"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
@@ -8319,7 +8396,7 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="7"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
@@ -8328,7 +8405,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -8339,7 +8416,7 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
@@ -8348,7 +8425,7 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
@@ -8357,7 +8434,7 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
@@ -8366,7 +8443,7 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -8377,7 +8454,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
@@ -8386,7 +8463,7 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
@@ -8395,7 +8472,7 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
@@ -8404,7 +8481,7 @@
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -8415,7 +8492,7 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="7"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
@@ -8424,7 +8501,7 @@
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="7"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
@@ -8433,7 +8510,7 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="7"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
@@ -8442,7 +8519,7 @@
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -8453,7 +8530,7 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
+      <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -8462,7 +8539,7 @@
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
@@ -8471,7 +8548,7 @@
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="7"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
@@ -8511,18 +8588,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
@@ -8786,18 +8863,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
@@ -8826,7 +8903,7 @@
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4">
@@ -8838,7 +8915,7 @@
       <c r="F8" s="4">
         <v>0.23410400000000001</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="4">
@@ -8852,7 +8929,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="4">
         <v>2</v>
       </c>
@@ -8862,7 +8939,7 @@
       <c r="F9" s="4">
         <v>0.202458</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="4">
         <v>2</v>
       </c>
@@ -8874,7 +8951,7 @@
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="4">
         <v>3</v>
       </c>
@@ -8884,7 +8961,7 @@
       <c r="F10" s="4">
         <v>0.13897899999999999</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="4">
         <v>3</v>
       </c>
@@ -8896,7 +8973,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
@@ -8908,7 +8985,7 @@
       <c r="F11" s="4">
         <v>0.23489499999999999</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="16" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4">
@@ -8922,7 +8999,7 @@
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4">
         <v>2</v>
       </c>
@@ -8932,7 +9009,7 @@
       <c r="F12" s="4">
         <v>0.173292</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="4">
         <v>2</v>
       </c>
@@ -8944,7 +9021,7 @@
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="4">
         <v>3</v>
       </c>
@@ -8954,7 +9031,7 @@
       <c r="F13" s="4">
         <v>0.112412</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="4">
         <v>3</v>
       </c>
@@ -8966,7 +9043,7 @@
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="4">
@@ -8978,7 +9055,7 @@
       <c r="F14" s="4">
         <v>0.18754699999999999</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="4">
@@ -8992,7 +9069,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="4">
         <v>2</v>
       </c>
@@ -9002,7 +9079,7 @@
       <c r="F15" s="4">
         <v>0.12782399999999999</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="4">
         <v>2</v>
       </c>
@@ -9014,7 +9091,7 @@
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="4">
         <v>3</v>
       </c>
@@ -9024,7 +9101,7 @@
       <c r="F16" s="4">
         <v>8.4030999999999995E-2</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="4">
         <v>3</v>
       </c>
@@ -9036,7 +9113,7 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4">
@@ -9048,7 +9125,7 @@
       <c r="F17" s="4">
         <v>0.208286</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="4">
@@ -9062,7 +9139,7 @@
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="4">
         <v>2</v>
       </c>
@@ -9072,7 +9149,7 @@
       <c r="F18" s="4">
         <v>0.15220800000000001</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="4">
         <v>2</v>
       </c>
@@ -9084,7 +9161,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="12"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="4">
         <v>3</v>
       </c>
@@ -9094,7 +9171,7 @@
       <c r="F19" s="4">
         <v>0.14286799999999999</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
@@ -9106,7 +9183,7 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4">
@@ -9118,7 +9195,7 @@
       <c r="F20" s="4">
         <v>0.225132</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="4">
@@ -9132,7 +9209,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="4">
         <v>2</v>
       </c>
@@ -9142,7 +9219,7 @@
       <c r="F21" s="4">
         <v>0.202046</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
@@ -9154,7 +9231,7 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="4">
         <v>3</v>
       </c>
@@ -9164,7 +9241,7 @@
       <c r="F22" s="4">
         <v>0.15507399999999999</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="4">
         <v>3</v>
       </c>
@@ -9215,11 +9292,11 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
@@ -9477,18 +9554,18 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">

--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A73F6A6-3F20-4B2D-B974-4E57D2CDC1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB896A6-3751-4217-B9DF-A8A89D750234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
@@ -26,32 +26,27 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'RF+RL 10M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'RF+RL 10M'!$E$9:$E$33</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'LR-Box &amp; Whisker 10M'!$D$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'LR-Box &amp; Whisker 10M'!$F$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'LR-Box &amp; Whisker 10M'!$F$9:$F$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'RF-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'RF-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Others!$J$8:$J$12</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Others!$K$8:$K$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Others!$J$8:$J$12</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Others!$K$8:$K$12</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'RF+RL 10M'!$C$8</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'RF+RL 10M'!$C$9:$C$33</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'RF+RL 10M'!$D$9:$D$33</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'RF+RL 10M'!$E$8</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'RF+RL 10M'!$E$9:$E$33</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'RF+RL 10M'!$C$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'RF-Box &amp; Whisker 10M'!$D$8:$D$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="61">
   <si>
     <t>CPU</t>
   </si>
@@ -243,6 +238,9 @@
   </si>
   <si>
     <t>3600 1800 60</t>
+  </si>
+  <si>
+    <t>Importance [0-1]</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1182,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1245,7 +1243,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6899912A-E712-44A0-B8B2-BB8F0EF76B29}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1335,10 +1333,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1378,7 +1376,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3E6BAE52-1607-448C-85FD-404D4B066EAD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1463,10 +1461,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1496,7 +1494,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{202117BA-FFDA-4949-A405-F197D342C9FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1529,10 +1527,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1562,7 +1560,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{CEA85BE7-71CD-4691-82E3-D870ADC49C46}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1595,10 +1593,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7883,7 +7881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1483A604-DE0A-4BDE-9BBE-72617D0A450A}">
   <dimension ref="A7:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -8846,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE905A-2CF5-4379-993D-5BFAA27A5D4D}">
   <dimension ref="C6:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8887,7 +8885,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>41</v>

--- a/Analysis/ThunderbirdStats.xlsx
+++ b/Analysis/ThunderbirdStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MGL870-TP2-Remise\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB896A6-3751-4217-B9DF-A8A89D750234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AF262F-37C1-4481-A8D0-20D24101F9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="25320" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Others" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Data Stats'!$C$7:$C$11</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'RF-Box &amp; Whisker 10M'!$E$7</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'RF-Box &amp; Whisker 10M'!$E$8:$E$27</definedName>
@@ -36,7 +36,7 @@
     <definedName name="_xlchart.v1.17" hidden="1">'RF-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">'LR-Box &amp; Whisker 20M'!$D$9:$D$28</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'LR-Box &amp; Whisker 20M'!$E$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$A$7:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Data Stats'!$B$7:$B$11</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'LR-Box &amp; Whisker 20M'!$E$9:$E$28</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">Others!$J$8:$J$12</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">Others!$K$8:$K$12</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="63">
   <si>
     <t>CPU</t>
   </si>
@@ -242,6 +242,12 @@
   <si>
     <t>Importance [0-1]</t>
   </si>
+  <si>
+    <t>E818</t>
+  </si>
+  <si>
+    <t>Régression Linéaire 10M - VAPI - dn30</t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -350,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,6 +409,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,10 +854,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -921,10 +936,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7882,7 +7897,7 @@
   <dimension ref="A7:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7922,76 +7937,76 @@
       <c r="A9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>0.90959999999999996</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="17">
         <v>0.95779999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>0.96</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>0.88</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="17">
         <v>0.93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="17">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="17">
         <v>0.94</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="17">
         <v>0.97</v>
       </c>
     </row>
@@ -8076,76 +8091,76 @@
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="17">
         <v>0.85119999999999996</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="17">
         <v>0.88370000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="17">
         <v>0.98</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="17">
         <v>0.72</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="17">
         <v>0.77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="17">
         <v>0.22</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="17">
         <v>0.39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="17">
         <v>0.91</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="17">
         <v>0.93</v>
       </c>
     </row>
@@ -8230,76 +8245,76 @@
       <c r="A29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="17">
         <v>0.9536</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="17">
         <v>0.97350000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="17">
         <v>1</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="17">
         <v>0.9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="17">
         <v>0.94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="17">
         <v>0.74</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="17">
         <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="17">
         <v>0.97</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="17">
         <v>0.98</v>
       </c>
     </row>
@@ -8842,10 +8857,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCE905A-2CF5-4379-993D-5BFAA27A5D4D}">
-  <dimension ref="C6:K22"/>
+  <dimension ref="C6:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8860,7 +8875,7 @@
     <col min="11" max="11" width="22.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C6" s="15" t="s">
         <v>47</v>
       </c>
@@ -8874,7 +8889,7 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>41</v>
       </c>
@@ -8900,7 +8915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
@@ -8925,8 +8940,14 @@
       <c r="K8" s="4">
         <v>0.32027499999999998</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>0.217363</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C9" s="16"/>
       <c r="D9" s="4">
         <v>2</v>
@@ -8947,8 +8968,14 @@
       <c r="K9" s="4">
         <v>0.27412300000000001</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9">
+        <v>0.16331699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="16"/>
       <c r="D10" s="4">
         <v>3</v>
@@ -8969,8 +8996,14 @@
       <c r="K10" s="4">
         <v>0.20379900000000001</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>0.149037</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
@@ -8995,8 +9028,14 @@
       <c r="K11" s="4">
         <v>0.36866199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <v>0.202129</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="16"/>
       <c r="D12" s="4">
         <v>2</v>
@@ -9017,8 +9056,14 @@
       <c r="K12" s="4">
         <v>0.26608799999999999</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12">
+        <v>0.17777799999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="16"/>
       <c r="D13" s="4">
         <v>3</v>
@@ -9039,8 +9084,14 @@
       <c r="K13" s="4">
         <v>0.2099</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13">
+        <v>0.14246500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" s="16" t="s">
         <v>17</v>
       </c>
@@ -9066,7 +9117,7 @@
         <v>0.36419699999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
       <c r="D15" s="4">
         <v>2</v>
@@ -9088,7 +9139,7 @@
         <v>0.243918</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" s="16"/>
       <c r="D16" s="4">
         <v>3</v>
@@ -9808,18 +9859,186 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843D3147-46E2-49FC-8DDE-AFDFD83F895D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="16"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="16"/>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="16"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="16"/>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="16"/>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="16"/>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="16"/>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="16"/>
+      <c r="E19" s="4">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="16"/>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="16"/>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
